--- a/pandas_library/files/Book3.xlsx
+++ b/pandas_library/files/Book3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pyip\Documents\GitHub\python-notebooks\pandas_library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pyip\Documents\GitHub\python-notebooks\pandas_library\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1679EF48-8E51-476C-B822-1E92EAB7C7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AB2B39-5632-4E04-9CE3-55F69D9688CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DEFC17C5-AE5F-4E6A-9834-2E810D21E7BC}"/>
+    <workbookView xWindow="1790" yWindow="1910" windowWidth="14420" windowHeight="8160" xr2:uid="{DEFC17C5-AE5F-4E6A-9834-2E810D21E7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,15 +41,6 @@
     <t>sat on the mat</t>
   </si>
   <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -80,15 +71,32 @@
     <t>time</t>
   </si>
   <si>
-    <t>float</t>
+    <t>string</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>floatingpoint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -112,19 +120,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -135,6 +448,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{927E3BDB-41CC-4757-9E63-0013B7B1A33B}" name="Table1" displayName="Table1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:G7" xr:uid="{927E3BDB-41CC-4757-9E63-0013B7B1A33B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{8071202B-0B95-43DA-AECE-2E4102125067}" name="string" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{EC95905A-F04D-42B7-ACC4-DBB3C80E01D2}" name="integer" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{ACA18E17-B6EC-4BFE-8411-043DE7D53FE0}" name="boolean" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B7A70B5D-F497-4EC0-B39B-052D60CB3FF1}" name="floatingpoint" dataDxfId="4">
+      <calculatedColumnFormula>B2-3.14</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{DD6951EF-C27D-44ED-A2CE-439C4BA12D93}" name="date" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5C930473-C576-4B6D-9F11-F24A8639F545}" name="time" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{7D34EAD1-11F2-4DC8-8D7E-2959186988EC}" name="category" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,185 +767,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89ACD5E-1F08-4B3B-9DB3-16375D6688B0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
         <v>4</v>
       </c>
-      <c r="C2" t="b">
+      <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>B2-3.14</f>
         <v>0.85999999999999988</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>45131.479166666664</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0.48333333333333334</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" t="b">
+      <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D7" si="0">B3-3.14</f>
         <v>0.85999999999999988</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>45132</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>-1.1400000000000001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>45133</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0.56666666666666698</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" t="b">
+      <c r="C5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>-1.1400000000000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>45134</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0.60833333333333295</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" t="b">
+      <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>-0.14000000000000012</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>45135</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0.65</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" t="b">
+      <c r="C7" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="11">
         <v>45136</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="12">
         <v>0.69166666666666698</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
+      <c r="G7" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/pandas_library/files/Book3.xlsx
+++ b/pandas_library/files/Book3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pyip\Documents\GitHub\python-notebooks\pandas_library\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AB2B39-5632-4E04-9CE3-55F69D9688CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4661838A-CDF3-4DAC-9420-47674DEDDEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1790" yWindow="1910" windowWidth="14420" windowHeight="8160" xr2:uid="{DEFC17C5-AE5F-4E6A-9834-2E810D21E7BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DEFC17C5-AE5F-4E6A-9834-2E810D21E7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,6 +87,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="hh:mm:ss;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,11 +238,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -248,13 +250,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="hh:mm:ss;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -283,160 +442,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -451,17 +456,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{927E3BDB-41CC-4757-9E63-0013B7B1A33B}" name="Table1" displayName="Table1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{927E3BDB-41CC-4757-9E63-0013B7B1A33B}" name="Table1" displayName="Table1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G7" xr:uid="{927E3BDB-41CC-4757-9E63-0013B7B1A33B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8071202B-0B95-43DA-AECE-2E4102125067}" name="string" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{EC95905A-F04D-42B7-ACC4-DBB3C80E01D2}" name="integer" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{ACA18E17-B6EC-4BFE-8411-043DE7D53FE0}" name="boolean" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B7A70B5D-F497-4EC0-B39B-052D60CB3FF1}" name="floatingpoint" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{8071202B-0B95-43DA-AECE-2E4102125067}" name="string" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{EC95905A-F04D-42B7-ACC4-DBB3C80E01D2}" name="integer" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{ACA18E17-B6EC-4BFE-8411-043DE7D53FE0}" name="boolean" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B7A70B5D-F497-4EC0-B39B-052D60CB3FF1}" name="floatingpoint" dataDxfId="3">
       <calculatedColumnFormula>B2-3.14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DD6951EF-C27D-44ED-A2CE-439C4BA12D93}" name="date" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5C930473-C576-4B6D-9F11-F24A8639F545}" name="time" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DD6951EF-C27D-44ED-A2CE-439C4BA12D93}" name="date" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5C930473-C576-4B6D-9F11-F24A8639F545}" name="time" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{7D34EAD1-11F2-4DC8-8D7E-2959186988EC}" name="category" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -469,9 +474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -509,7 +514,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -615,7 +620,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -757,7 +762,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -768,7 +773,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,35 +782,35 @@
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="15" customWidth="1"/>
     <col min="7" max="7" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
@@ -821,15 +826,15 @@
       <c r="E2" s="2">
         <v>45131.479166666664</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="13">
         <v>0.48333333333333334</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
@@ -845,15 +850,15 @@
       <c r="E3" s="2">
         <v>45132</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="13">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
@@ -869,15 +874,15 @@
       <c r="E4" s="2">
         <v>45133</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="13">
         <v>0.56666666666666698</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -893,15 +898,15 @@
       <c r="E5" s="2">
         <v>45134</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="13">
         <v>0.60833333333333295</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -917,34 +922,34 @@
       <c r="E6" s="2">
         <v>45135</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="13">
         <v>0.65</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="b">
+      <c r="C7" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>45136</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="14">
         <v>0.69166666666666698</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
